--- a/Exc3/tech_radar.xlsx
+++ b/Exc3/tech_radar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\PycharmProjects\Yandex\Sprint11\architecture-sprint-11\Exc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8389F7F7-A1EF-4B6A-87BE-25BB372F6329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523ECADA-48F1-4C7E-90CD-F8D4D679AA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>SQL Server 2008</t>
   </si>
   <si>
-    <t>Data Lake (Spark, BigQuery)</t>
-  </si>
-  <si>
-    <t>Snowflake</t>
-  </si>
-  <si>
     <t>Интеграция</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>AsyncAPI</t>
+  </si>
+  <si>
+    <t>Cloudera/Hadoop (on-prem), Greenplum</t>
+  </si>
+  <si>
+    <t>Databricks (Lakehouse)</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,112 +539,112 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
